--- a/HP/zj/202104.xlsx
+++ b/HP/zj/202104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>2021年04月份旅差费</t>
   </si>
@@ -74,10 +74,110 @@
     <t>其中一台机追加CPU,主板也坏一起换了，途中回来取扫描枪。</t>
   </si>
   <si>
-    <t>公司-水东</t>
+    <t>公司-水东金裕世家-公司</t>
+  </si>
+  <si>
+    <t>邱小姐</t>
+  </si>
+  <si>
+    <t>24*2</t>
   </si>
   <si>
     <t>检测欧派智能马桶盖，渗水</t>
+  </si>
+  <si>
+    <t>公司-农林-公司</t>
+  </si>
+  <si>
+    <t>1、叶老师 2、吴老师</t>
+  </si>
+  <si>
+    <t>17*2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台海尔主机给叶老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台显示器给吴老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>、</t>
@@ -725,7 +825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1211,13 +1311,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1571,6 +1686,9 @@
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1592,7 +1710,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1666,28 +1784,50 @@
     <row r="7" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="14"/>
       <c r="C7" s="15">
-        <v>44293</v>
+        <v>44293.0</v>
       </c>
       <c r="D7" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11">
+        <v>48</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="35.249462" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="38.249416" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+      <c r="C8" s="15">
+        <v>44292</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11">
+        <v>34</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
@@ -1862,7 +2002,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1874,11 +2014,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>46</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202104.xlsx
+++ b/HP/zj/202104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>2021年04月份旅差费</t>
   </si>
@@ -86,6 +86,9 @@
     <t>检测欧派智能马桶盖，渗水</t>
   </si>
   <si>
+    <t>无单</t>
+  </si>
+  <si>
     <t>公司-农林-公司</t>
   </si>
   <si>
@@ -167,6 +170,153 @@
         <charset val="134"/>
       </rPr>
       <t>台显示器给吴老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-013637382
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-013639845+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司-高州第一中学-高州市公安局-公司</t>
+  </si>
+  <si>
+    <t>1、柯先生2、蔡先生</t>
+  </si>
+  <si>
+    <t>36*2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、送一台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主机到高州第一中学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、到高州市公安局换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主板。</t>
     </r>
     <r>
       <rPr>
@@ -825,7 +975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1293,21 +1443,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1684,10 +1819,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1710,7 +1845,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1786,7 +1921,7 @@
       <c r="C7" s="15">
         <v>44293.0</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -1799,45 +1934,63 @@
         <v>12</v>
       </c>
       <c r="H7" s="11">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="38.249416" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="15">
-        <v>44292</v>
-      </c>
-      <c r="D8" s="121" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="122" t="s">
+        <v>44292.0</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="11">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12">
+        <v>44302</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="11">
+        <v>72</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="11"/>
@@ -2002,7 +2155,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2014,11 +2167,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>128</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202104.xlsx
+++ b/HP/zj/202104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>2021年04月份旅差费</t>
   </si>
@@ -74,6 +74,9 @@
     <t>其中一台机追加CPU,主板也坏一起换了，途中回来取扫描枪。</t>
   </si>
   <si>
+    <t>无单</t>
+  </si>
+  <si>
     <t>公司-水东金裕世家-公司</t>
   </si>
   <si>
@@ -84,9 +87,6 @@
   </si>
   <si>
     <t>检测欧派智能马桶盖，渗水</t>
-  </si>
-  <si>
-    <t>无单</t>
   </si>
   <si>
     <t>公司-农林-公司</t>
@@ -328,6 +328,49 @@
 </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.04.23上午</t>
+  </si>
+  <si>
+    <t>吴老师</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>×2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>送三台海尔主机;1台显示器给吴老师</t>
+  </si>
+  <si>
+    <t>2021-4-23下午</t>
+  </si>
+  <si>
+    <t>检测欧派智能马桶盖，感应器坏</t>
   </si>
   <si>
     <t>、</t>
@@ -975,7 +1018,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1461,13 +1504,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1819,10 +1892,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="183" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1844,8 +1920,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1917,18 +1993,20 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="15">
         <v>44293.0</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>12</v>
@@ -1937,12 +2015,12 @@
         <v>48.0</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="38.249416" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="15">
         <v>44292.0</v>
@@ -1967,16 +2045,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="12">
-        <v>44302</v>
+        <v>44302.0</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E9" s="70" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -1986,31 +2064,63 @@
         <v>12</v>
       </c>
       <c r="H9" s="11">
-        <v>72</v>
-      </c>
-      <c r="I9" s="122" t="s">
+        <v>72.0</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="11">
+        <v>34</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="I11" s="123" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
@@ -2155,7 +2265,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2167,11 +2277,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>200</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202104.xlsx
+++ b/HP/zj/202104.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>2021年04月份旅差费</t>
   </si>
@@ -89,7 +89,7 @@
     <t>检测欧派智能马桶盖，渗水</t>
   </si>
   <si>
-    <t>公司-农林-公司</t>
+    <t>公司-农林职业技术学院-公司</t>
   </si>
   <si>
     <t>1、叶老师 2、吴老师</t>
@@ -370,7 +370,10 @@
     <t>2021-4-23下午</t>
   </si>
   <si>
-    <t>检测欧派智能马桶盖，感应器坏</t>
+    <t>24*2+10*2</t>
+  </si>
+  <si>
+    <t>1、检测欧派智能马桶盖，感应器坏2、因客户不会设置摇控器导致二次上门。</t>
   </si>
   <si>
     <t>、</t>
@@ -1018,7 +1021,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1519,28 +1522,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1892,14 +1880,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1920,8 +1905,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="J30" activeCellId="0" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2090,17 +2075,17 @@
         <v>12</v>
       </c>
       <c r="H10" s="11">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="37.499428" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -2109,17 +2094,17 @@
       <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>17</v>
+      <c r="F11" s="122" t="s">
+        <v>33</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="11">
-        <v>48.0</v>
-      </c>
-      <c r="I11" s="123" t="s">
-        <v>33</v>
+        <v>68</v>
+      </c>
+      <c r="I11" s="121" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
@@ -2265,7 +2250,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2277,11 +2262,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
